--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,238 +46,250 @@
     <t>thin</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>fell</t>
+  </si>
+  <si>
     <t>tried</t>
   </si>
   <si>
-    <t>fell</t>
+    <t>maybe</t>
   </si>
   <si>
     <t>less</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>bad</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>return</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>pieces</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>way</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
+    <t>get</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>got</t>
   </si>
   <si>
     <t>time</t>
@@ -286,21 +298,18 @@
     <t>really</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -322,49 +331,46 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>playing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -725,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8913043478260869</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -812,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -865,16 +871,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K4">
-        <v>0.8461538461538461</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -894,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8309859154929577</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -912,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -944,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8009708737864077</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -962,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -994,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7954545454545454</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1012,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1044,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7903225806451613</v>
+        <v>0.78125</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1062,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K8">
-        <v>0.578125</v>
+        <v>0.59375</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1094,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1112,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K9">
-        <v>0.463768115942029</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1144,37 +1150,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.78125</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C10">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>156</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>50</v>
       </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10">
-        <v>0.4306808859721083</v>
+        <v>0.4360655737704918</v>
       </c>
       <c r="L10">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M10">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1194,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6756756756756757</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1212,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K11">
-        <v>0.4195402298850575</v>
+        <v>0.4339080459770115</v>
       </c>
       <c r="L11">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M11">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1244,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6727272727272727</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K12">
-        <v>0.3921161825726141</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="L12">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M12">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1286,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1294,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1312,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K13">
-        <v>0.3425076452599388</v>
+        <v>0.35</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1347,10 +1353,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,31 +1368,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>110</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6428571428571429</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1412,31 +1418,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1444,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1462,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K16">
-        <v>0.3121693121693122</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="L16">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1486,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1494,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5789473684210527</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1512,31 +1518,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17">
-        <v>0.2377622377622378</v>
+        <v>0.2056451612903226</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1544,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5740740740740741</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1562,31 +1568,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K18">
-        <v>0.2096774193548387</v>
+        <v>0.1875</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>196</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1594,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C19">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1612,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19">
-        <v>0.203125</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>102</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5542168674698795</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1662,31 +1668,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K20">
-        <v>0.1984126984126984</v>
+        <v>0.1493848857644991</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>101</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1694,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5246376811594203</v>
+        <v>0.5625</v>
       </c>
       <c r="C21">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1712,31 +1718,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K21">
-        <v>0.1559139784946237</v>
+        <v>0.09776536312849161</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>157</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1744,49 +1750,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5039370078740157</v>
+        <v>0.561046511627907</v>
       </c>
       <c r="C22">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D22">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K22">
-        <v>0.1536435469710272</v>
+        <v>0.09582790091264667</v>
       </c>
       <c r="L22">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="M22">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>964</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1794,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4761904761904762</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1812,31 +1818,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K23">
-        <v>0.09564085881587508</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L23">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1390</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1844,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4754098360655737</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1862,31 +1868,31 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24">
+        <v>0.08579088471849866</v>
+      </c>
+      <c r="L24">
         <v>32</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24">
-        <v>0.0947075208913649</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
       <c r="M24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1894,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4727272727272727</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1912,31 +1918,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K25">
-        <v>0.07120743034055728</v>
+        <v>0.04172274562584118</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>300</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1944,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.4921875</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1962,31 +1968,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K26">
-        <v>0.06199460916442048</v>
+        <v>0.03907380607814761</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N26">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="O26">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>348</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1994,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4583333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2012,31 +2018,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27">
-        <v>0.04832214765100671</v>
-      </c>
-      <c r="L27">
-        <v>36</v>
-      </c>
-      <c r="M27">
-        <v>43</v>
-      </c>
-      <c r="N27">
-        <v>0.84</v>
-      </c>
-      <c r="O27">
-        <v>0.16</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>709</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2044,25 +2026,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4489795918367347</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4453125</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C29">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2096,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4421052631578947</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2114,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2122,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4312796208530806</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C31">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2140,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2130,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4306930693069307</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C32">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2174,13 +2156,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4157303370786517</v>
+        <v>0.40625</v>
       </c>
       <c r="C33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2192,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2200,13 +2182,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4137931034482759</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2218,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2226,13 +2208,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4074074074074074</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2244,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2252,13 +2234,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.40625</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2270,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2278,7 +2260,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3968253968253968</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2296,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2304,7 +2286,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3709677419354839</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C38">
         <v>23</v>
@@ -2322,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2330,13 +2312,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3675213675213675</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2348,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2356,25 +2338,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3529411764705883</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2382,13 +2364,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3298969072164948</v>
+        <v>0.345360824742268</v>
       </c>
       <c r="C41">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2400,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2408,13 +2390,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3243243243243243</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2426,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2434,7 +2416,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3163265306122449</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C43">
         <v>31</v>
@@ -2452,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2460,13 +2442,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.315</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2478,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>137</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2486,13 +2468,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3132911392405063</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C45">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2504,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2512,13 +2494,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3076923076923077</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2530,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>54</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2538,25 +2520,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2928571428571429</v>
+        <v>0.2659732540861813</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>99</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2564,13 +2546,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2898550724637681</v>
+        <v>0.2644927536231884</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2582,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2590,13 +2572,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.288659793814433</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C49">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2608,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2616,13 +2598,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2783505154639175</v>
+        <v>0.2577092511013216</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2634,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>70</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2642,25 +2624,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2777777777777778</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2668,25 +2650,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2678571428571428</v>
+        <v>0.245</v>
       </c>
       <c r="C52">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="D52">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>492</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2694,7 +2676,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2637362637362637</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C53">
         <v>24</v>
@@ -2712,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2720,25 +2702,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.253968253968254</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E54">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F54">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2746,13 +2728,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.247787610619469</v>
+        <v>0.2312138728323699</v>
       </c>
       <c r="C55">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>0.02</v>
@@ -2764,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>340</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2772,13 +2754,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2421875</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2790,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2798,25 +2780,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.239193083573487</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C57">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>264</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2824,13 +2806,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2198952879581152</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C58">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2842,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2850,25 +2832,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2171428571428571</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="C59">
         <v>38</v>
       </c>
       <c r="D59">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2876,13 +2858,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.205607476635514</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="C60">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D60">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2894,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2902,25 +2884,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2038216560509554</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2928,13 +2910,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.203125</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2946,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2954,25 +2936,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1949152542372881</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2980,25 +2962,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1948051948051948</v>
+        <v>0.1856060606060606</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>124</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3006,13 +2988,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1912568306010929</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="C65">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3024,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3032,25 +3014,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1906077348066298</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D66">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3058,25 +3040,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1862348178137652</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="C67">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>201</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3084,25 +3066,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1846153846153846</v>
+        <v>0.1548387096774194</v>
       </c>
       <c r="C68">
         <v>24</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3110,25 +3092,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1804511278195489</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E69">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3136,25 +3118,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1666666666666667</v>
+        <v>0.1534246575342466</v>
       </c>
       <c r="C70">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E70">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>155</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3162,25 +3144,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1657142857142857</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="C71">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>146</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3188,13 +3170,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1637426900584795</v>
+        <v>0.1366459627329193</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3206,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3214,25 +3196,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1492537313432836</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C73">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="D73">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>513</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3240,25 +3222,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1397849462365591</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="C74">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="F74">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>240</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3266,25 +3248,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1396011396011396</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C75">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E75">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>302</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3292,25 +3274,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1301587301587302</v>
+        <v>0.1173553719008264</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D76">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>274</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3318,25 +3300,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1165919282511211</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="C77">
         <v>52</v>
       </c>
       <c r="D77">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E77">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F77">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3344,25 +3326,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1126760563380282</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="C78">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E78">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F78">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>378</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3370,25 +3352,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09067688378033206</v>
+        <v>0.1115107913669065</v>
       </c>
       <c r="C79">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D79">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E79">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F79">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>712</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3396,25 +3378,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08490566037735849</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C80">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E80">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F80">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>388</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3422,25 +3404,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08461538461538462</v>
+        <v>0.1011764705882353</v>
       </c>
       <c r="C81">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D81">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E81">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F81">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>595</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3448,25 +3430,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.06986027944111776</v>
+        <v>0.1004672897196262</v>
       </c>
       <c r="C82">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E82">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F82">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>466</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3474,25 +3456,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06864988558352403</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E83">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="F83">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>407</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3500,13 +3482,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.04935622317596566</v>
+        <v>0.08634538152610442</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E84">
         <v>0.12</v>
@@ -3518,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3526,25 +3508,103 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.04111600587371513</v>
+        <v>0.0793854033290653</v>
       </c>
       <c r="C85">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>75</v>
+      </c>
+      <c r="E85">
+        <v>0.17</v>
+      </c>
+      <c r="F85">
+        <v>0.83</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C86">
+        <v>25</v>
+      </c>
+      <c r="D86">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>0.04</v>
+      </c>
+      <c r="F86">
+        <v>0.96</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.06363636363636363</v>
+      </c>
+      <c r="C87">
         <v>28</v>
       </c>
-      <c r="D85">
-        <v>39</v>
-      </c>
-      <c r="E85">
-        <v>0.28</v>
-      </c>
-      <c r="F85">
-        <v>0.72</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>653</v>
+      <c r="D87">
+        <v>35</v>
+      </c>
+      <c r="E87">
+        <v>0.2</v>
+      </c>
+      <c r="F87">
+        <v>0.8</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04751619870410367</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <v>0.21</v>
+      </c>
+      <c r="F88">
+        <v>0.79</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
